--- a/Defense/TDG.xlsx
+++ b/Defense/TDG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Defense/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA435E87-EFB5-9247-A5CC-A9EE7F914C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A65B48B-9C61-4341-BD5E-D0CABBD4772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF Model" sheetId="1" r:id="rId1"/>
@@ -1940,12 +1940,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1424.68</v>
-    <v>799.31709999999998</v>
-    <v>1.4293</v>
-    <v>22.21</v>
-    <v>1.6884999999999997E-2</v>
-    <v>7.4</v>
-    <v>5.5320000000000005E-3</v>
+    <v>803.33920000000001</v>
+    <v>1.4294</v>
+    <v>-53.21</v>
+    <v>-3.8484999999999998E-2</v>
+    <v>0.02</v>
+    <v>1.5039999999999998E-5</v>
     <v>USD</v>
     <v>TransDigm Group Incorporated is a designer, producer and supplier of engineered aircraft components for use on all commercial and military aircraft in service. The Company's segments include Power &amp; Control, Airframe and Non-aviation. Power &amp; Control segment develops, produces and markets systems and components that predominately provide power to or control power of the aircraft utilizing electronic, fluid, power and mechanical motion control technologies. Its product offerings include mechanical/electro-mechanical actuators and controls. Airframe segment develops, produces and markets systems and components that are used in non-power airframe applications utilizing airframe and cabin structure technologies. Its product offerings include engineered latching and locking devices, and engineered rods. Non-aviation segment develops, produces and markets products for non-aviation markets. It manufactures complex test and measurement solutions serving the aerospace and defense end markets.</v>
     <v>15500</v>
@@ -1953,25 +1953,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1350 Euclid Avenue, Suite 1600, CLEVELAND, OH, 44115 US</v>
-    <v>1339</v>
+    <v>1359.9</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45602.024977510941</v>
+    <v>45604.000000046093</v>
     <v>0</v>
-    <v>1318</v>
-    <v>75054595264</v>
+    <v>1306.03</v>
+    <v>74593920752</v>
     <v>TRANSDIGM GROUP INCORPORATED</v>
     <v>TRANSDIGM GROUP INCORPORATED</v>
-    <v>1322.38</v>
-    <v>49.500999999999998</v>
-    <v>1315.39</v>
-    <v>1337.6</v>
-    <v>1345</v>
+    <v>1347</v>
+    <v>51.9345</v>
+    <v>1382.6</v>
+    <v>1329.39</v>
+    <v>1329.41</v>
     <v>56111390</v>
     <v>TDG</v>
     <v>TRANSDIGM GROUP INCORPORATED (XNYS:TDG)</v>
-    <v>166589</v>
-    <v>169671</v>
+    <v>509733</v>
+    <v>178136</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -2865,7 +2865,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="K3" sqref="K3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2898,14 +2898,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>1337.6</v>
+        <v>1329.39</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>9.4670276569122098</v>
+        <v>9.4089203773965693</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2945,21 +2945,21 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.6884999999999997E-2</v>
+        <v>-3.8484999999999998E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>38.848134194616975</v>
+        <v>38.609689830227744</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="44">
-        <f>E17</f>
-        <v>0.19134396355353075</v>
+        <f>F17</f>
+        <v>0.24369323915237134</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>6</v>
@@ -2993,21 +2993,21 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>75054595264</v>
+        <v>74593920752</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.8998278382615409E-2</v>
+        <v>3.9239122578518193E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="44">
-        <f>E20</f>
-        <v>0.32528473804100227</v>
+        <f>F20</f>
+        <v>0.36919778002018161</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>8</v>
@@ -3042,7 +3042,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.4293</v>
+        <v>1.4294</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.57115232391858106</v>
+        <v>-0.56850386152558241</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Defense/TDG.xlsx
+++ b/Defense/TDG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Defense/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A65B48B-9C61-4341-BD5E-D0CABBD4772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3929996A-5EC9-4C48-BD46-90711A7B0565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
